--- a/biology/Botanique/Oenothera_macrocarpa/Oenothera_macrocarpa.xlsx
+++ b/biology/Botanique/Oenothera_macrocarpa/Oenothera_macrocarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oenothera macrocarpa, l'Œnothère à grandes fleurs (syn. Oenothera missouriensis), est une plante vivace appartenant au genre Oenothera dans la famille des Onagraceae. Elle est originaire du sud-est des États-Unis, d'où un de ses noms. En français, on l'appelle Onagre.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Oenothera vient des mots grecs ‘oinos’ qui désigne le vin et ‘thêr’ qui signifie chasser les bêtes sauvages. Ce nom désignait chez les grecs une plante (sans doute différente), dont les racines infusées dans du vin, étaient utilisées pour apprivoiser les bêtes sauvages[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Oenothera vient des mots grecs ‘oinos’ qui désigne le vin et ‘thêr’ qui signifie chasser les bêtes sauvages. Ce nom désignait chez les grecs une plante (sans doute différente), dont les racines infusées dans du vin, étaient utilisées pour apprivoiser les bêtes sauvages.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante de 35 cm de large et 30 cm de haut à port étalé avec des feuilles vertes lancéolées. Mais au cœur de la rosette apparaissent les tiges florales pouvant atteindre 1,5 m en fin d'été.
 Au fur et à mesure que les tiges florales poussent, elles portent à leur sommet des fleurs jaune vif de 6 cm de diamètre environ. Une fois fanées, elles se transforment en gousses de fruit pendant que de nouvelles fleurs apparaissent un peu plus haut.
@@ -576,7 +592,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au début du printemps, elle ne recommence sa croissance qu'en avril.
 Elle apprécie le soleil et des sols un peu secs (craint l'humidité). Elle supporte le gel jusqu'à -20 °C.
